--- a/teaching/traditional_assets/database/data/india/india_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/india/india_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ31"/>
+  <dimension ref="A1:AQ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.105</v>
+        <v>0.09699999999999999</v>
       </c>
       <c r="E2">
-        <v>0.0397</v>
+        <v>0.0518</v>
       </c>
       <c r="F2">
-        <v>0.215</v>
+        <v>0.188</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0006902863167889262</v>
+        <v>-0.000897678921492206</v>
       </c>
       <c r="J2">
-        <v>-0.0005742781942014992</v>
+        <v>-0.000773368555393232</v>
       </c>
       <c r="K2">
-        <v>3002.900000000001</v>
+        <v>7159.999999999999</v>
       </c>
       <c r="L2">
-        <v>0.04945577077318595</v>
+        <v>0.1075978185894768</v>
       </c>
       <c r="M2">
-        <v>1122.635</v>
+        <v>72.36499999999999</v>
       </c>
       <c r="N2">
-        <v>0.003495115676752041</v>
+        <v>0.0002215821266984952</v>
       </c>
       <c r="O2">
-        <v>0.3738502780645375</v>
+        <v>0.01010684357541899</v>
       </c>
       <c r="P2">
-        <v>1120.595</v>
+        <v>58.743</v>
       </c>
       <c r="Q2">
-        <v>0.003488764515439082</v>
+        <v>0.0001798714691998854</v>
       </c>
       <c r="R2">
-        <v>0.3731709347630623</v>
+        <v>0.008204329608938549</v>
       </c>
       <c r="S2">
-        <v>2.039999999999999</v>
+        <v>13.622</v>
       </c>
       <c r="T2">
-        <v>0.0018171533935785</v>
+        <v>0.1882401713535549</v>
       </c>
       <c r="U2">
-        <v>131023.8</v>
+        <v>181865.6</v>
       </c>
       <c r="V2">
-        <v>0.4079182792337885</v>
+        <v>0.5568737154881206</v>
       </c>
       <c r="W2">
-        <v>0.03523624299279259</v>
+        <v>0.03793970874847088</v>
       </c>
       <c r="X2">
-        <v>0.06405988024702151</v>
+        <v>0.06728917812785144</v>
       </c>
       <c r="Y2">
-        <v>-0.02882363725422893</v>
+        <v>-0.02934946937938056</v>
       </c>
       <c r="Z2">
-        <v>0.2659893369883358</v>
+        <v>0.2963233791041362</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05158732589327511</v>
+        <v>0.04925042488951599</v>
       </c>
       <c r="AC2">
-        <v>-0.05162982722505047</v>
+        <v>-0.05020659902027005</v>
       </c>
       <c r="AD2">
-        <v>183769.8</v>
+        <v>195793.4</v>
       </c>
       <c r="AE2">
-        <v>2979.782129202375</v>
+        <v>2998.771179598347</v>
       </c>
       <c r="AF2">
-        <v>186749.5821292024</v>
+        <v>198792.1711795983</v>
       </c>
       <c r="AG2">
-        <v>55725.78212920237</v>
+        <v>16926.57117959834</v>
       </c>
       <c r="AH2">
-        <v>0.3676529802979982</v>
+        <v>0.3783812148126786</v>
       </c>
       <c r="AI2">
-        <v>0.5392522864955364</v>
+        <v>0.5073588707245354</v>
       </c>
       <c r="AJ2">
-        <v>0.1478424192363674</v>
+        <v>0.04927537030889454</v>
       </c>
       <c r="AK2">
-        <v>0.2588426159476682</v>
+        <v>0.08062112026091382</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>331.688695642757</v>
+        <v>362.5676133617521</v>
       </c>
       <c r="AP2">
-        <v>100.5802476147201</v>
+        <v>31.34439932594656</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IDBI Bank Limited (BSE:500116)</t>
+          <t>City Union Bank Ltd. (BSE:532210)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,41 +721,50 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0702</v>
+      </c>
+      <c r="E3">
+        <v>-0.00593</v>
+      </c>
+      <c r="F3">
+        <v>0.001</v>
+      </c>
       <c r="G3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.0002821589456208011</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.0002821589456208011</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-2307.1</v>
+        <v>55.6</v>
       </c>
       <c r="L3">
-        <v>1.732057057057057</v>
+        <v>0.2646358876725369</v>
       </c>
       <c r="M3">
-        <v>2.58</v>
+        <v>5.01</v>
       </c>
       <c r="N3">
-        <v>0.0004780699316248819</v>
+        <v>0.002748066480171137</v>
       </c>
       <c r="O3">
-        <v>-0.001118287027003598</v>
+        <v>0.09010791366906475</v>
       </c>
       <c r="P3">
-        <v>2.58</v>
+        <v>5.01</v>
       </c>
       <c r="Q3">
-        <v>0.0004780699316248819</v>
+        <v>0.002748066480171137</v>
       </c>
       <c r="R3">
-        <v>-0.001118287027003598</v>
+        <v>0.09010791366906475</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -764,61 +773,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4294.3</v>
+        <v>399.4</v>
       </c>
       <c r="V3">
-        <v>0.7957270183630738</v>
+        <v>0.2190773956447809</v>
+      </c>
+      <c r="W3">
+        <v>0.07582162825582982</v>
       </c>
       <c r="X3">
-        <v>0.06341007109685676</v>
+        <v>0.04501504435642965</v>
+      </c>
+      <c r="Y3">
+        <v>0.03080658389940016</v>
       </c>
       <c r="Z3">
-        <v>-1261.576978868358</v>
+        <v>0.5958593306863302</v>
       </c>
       <c r="AA3">
-        <v>0.3559652301769716</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05367129363109503</v>
+        <v>0.04301961725483416</v>
       </c>
       <c r="AC3">
-        <v>0.3022939365458766</v>
+        <v>-0.04301961725483416</v>
       </c>
       <c r="AD3">
-        <v>4275.2</v>
+        <v>227.9</v>
       </c>
       <c r="AE3">
-        <v>1.055821422165464</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4276.255821422165</v>
+        <v>227.9</v>
       </c>
       <c r="AG3">
-        <v>-18.04417857783483</v>
+        <v>-171.5</v>
       </c>
       <c r="AH3">
-        <v>0.4420836712550445</v>
+        <v>0.1111165285226719</v>
       </c>
       <c r="AI3">
-        <v>0.4920238354123107</v>
+        <v>0.2312297077922078</v>
       </c>
       <c r="AJ3">
-        <v>-0.003354774720101682</v>
+        <v>-0.1038387018648583</v>
       </c>
       <c r="AK3">
-        <v>-0.004103882253750689</v>
+        <v>-0.2925622654384168</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>7283.134582623509</v>
-      </c>
-      <c r="AP3">
-        <v>-30.73965686172884</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RBL Bank Limited (BSE:540065)</t>
+          <t>Kotak Mahindra Bank Limited (BSE:500247)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -837,8 +846,14 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.178</v>
+      </c>
+      <c r="E4">
+        <v>0.24</v>
+      </c>
       <c r="F4">
-        <v>0.22</v>
+        <v>0.176</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -847,34 +862,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.005672250197617496</v>
+        <v>0.0006194679046857805</v>
       </c>
       <c r="J4">
-        <v>0.003689847974153332</v>
+        <v>0.0004707956075611932</v>
       </c>
       <c r="K4">
-        <v>108.7</v>
+        <v>1231.2</v>
       </c>
       <c r="L4">
-        <v>0.2018945022288262</v>
+        <v>0.2688268302801372</v>
       </c>
       <c r="M4">
-        <v>16.3</v>
+        <v>1.23</v>
       </c>
       <c r="N4">
-        <v>0.006619289340101523</v>
+        <v>2.272870062051201e-05</v>
       </c>
       <c r="O4">
-        <v>0.1499540018399264</v>
+        <v>0.0009990253411306042</v>
       </c>
       <c r="P4">
-        <v>16.3</v>
+        <v>1.23</v>
       </c>
       <c r="Q4">
-        <v>0.006619289340101523</v>
+        <v>2.272870062051201e-05</v>
       </c>
       <c r="R4">
-        <v>0.1499540018399264</v>
+        <v>0.0009990253411306042</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -883,49 +898,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>517.7</v>
+        <v>5269.7</v>
       </c>
       <c r="V4">
-        <v>0.2102335025380711</v>
+        <v>0.09737677533326188</v>
+      </c>
+      <c r="W4">
+        <v>0.1390353799419557</v>
       </c>
       <c r="X4">
-        <v>0.06405988024702151</v>
+        <v>0.04587644642274369</v>
+      </c>
+      <c r="Y4">
+        <v>0.09315893351921201</v>
       </c>
       <c r="Z4">
-        <v>9.490518762940962</v>
+        <v>0.3029011454642313</v>
       </c>
       <c r="AA4">
-        <v>0.0350185714311019</v>
+        <v>0.0001426045288098141</v>
       </c>
       <c r="AB4">
-        <v>0.05095951217307937</v>
+        <v>0.04434188083231673</v>
       </c>
       <c r="AC4">
-        <v>-0.01594094074197747</v>
+        <v>-0.04419927630350692</v>
       </c>
       <c r="AD4">
-        <v>1974.9</v>
+        <v>8463.4</v>
       </c>
       <c r="AE4">
-        <v>56.7303024680137</v>
+        <v>329.314494716648</v>
       </c>
       <c r="AF4">
-        <v>2031.630302468014</v>
+        <v>8792.714494716647</v>
       </c>
       <c r="AG4">
-        <v>1513.930302468014</v>
+        <v>3523.014494716647</v>
       </c>
       <c r="AH4">
-        <v>0.452063061311844</v>
+        <v>0.1397680862578004</v>
       </c>
       <c r="AI4">
-        <v>0.6483932769129926</v>
+        <v>0.4488296753524795</v>
       </c>
       <c r="AJ4">
-        <v>0.380725974633172</v>
+        <v>0.06112140973877563</v>
       </c>
       <c r="AK4">
-        <v>0.5788013317629499</v>
+        <v>0.2460100085800372</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -934,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>137.1458333333333</v>
+        <v>123.1935953420669</v>
       </c>
       <c r="AP4">
-        <v>105.1340487825009</v>
+        <v>51.28114257229472</v>
       </c>
     </row>
     <row r="5">
@@ -948,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndicate Bank (BSE:532276)</t>
+          <t>Indian Overseas Bank (BSE:532388)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -957,22 +978,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5">
-        <v>-89.5</v>
+        <v>-770.2</v>
       </c>
       <c r="L5">
-        <v>-0.1099373541333988</v>
+        <v>26.37671232876713</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -996,49 +1017,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2961</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1.227154046997389</v>
       </c>
       <c r="W5">
-        <v>-0.0409479800521572</v>
+        <v>-0.3940045017393084</v>
       </c>
       <c r="X5">
-        <v>0.04763697759648761</v>
+        <v>0.04904203976383437</v>
       </c>
       <c r="Y5">
-        <v>-0.08858495764864481</v>
+        <v>-0.4430465415031428</v>
       </c>
       <c r="Z5">
-        <v>0.2796441330035724</v>
+        <v>0.03353623521304698</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.04763697759648761</v>
+        <v>0.04503290956989502</v>
       </c>
       <c r="AC5">
-        <v>-0.04763697759648761</v>
+        <v>-0.04503290956989502</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>724.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>724.3</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>-2236.7</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.2308746653066429</v>
+      </c>
+      <c r="AI5">
+        <v>0.2450270635994587</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>-12.69409761634504</v>
+      </c>
+      <c r="AK5">
+        <v>447.34</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1055,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>City Union Bank Ltd. (BSE:532210)</t>
+          <t>The Karur Vysya Bank Limited (NSEI:KARURVYSYA)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1064,13 +1091,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.14</v>
+        <v>0.0325</v>
       </c>
       <c r="E6">
-        <v>0.149</v>
-      </c>
-      <c r="F6">
-        <v>0.14</v>
+        <v>-0.096</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1085,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>103.7</v>
+        <v>43.4</v>
       </c>
       <c r="L6">
-        <v>0.3857886904761905</v>
+        <v>0.1511668408220132</v>
       </c>
       <c r="M6">
-        <v>2.13</v>
+        <v>0.101</v>
       </c>
       <c r="N6">
-        <v>0.0008785316560115487</v>
+        <v>0.0002016773162939297</v>
       </c>
       <c r="O6">
-        <v>0.02054001928640308</v>
+        <v>0.002327188940092166</v>
       </c>
       <c r="P6">
-        <v>2.13</v>
+        <v>0.101</v>
       </c>
       <c r="Q6">
-        <v>0.0008785316560115487</v>
+        <v>0.0002016773162939297</v>
       </c>
       <c r="R6">
-        <v>0.02054001928640308</v>
+        <v>0.002327188940092166</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1115,55 +1139,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>299.6</v>
+        <v>380</v>
       </c>
       <c r="V6">
-        <v>0.1235718704887606</v>
+        <v>0.7587859424920128</v>
       </c>
       <c r="W6">
-        <v>0.1682622099626805</v>
+        <v>0.04716366007389697</v>
       </c>
       <c r="X6">
-        <v>0.04876096834223782</v>
+        <v>0.05077129075444077</v>
       </c>
       <c r="Y6">
-        <v>0.1195012416204427</v>
+        <v>-0.003607630680543795</v>
       </c>
       <c r="Z6">
-        <v>0.512</v>
+        <v>0.4907692307692306</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04780532145431252</v>
+        <v>0.04555974549992238</v>
       </c>
       <c r="AC6">
-        <v>-0.04780532145431252</v>
+        <v>-0.04555974549992238</v>
       </c>
       <c r="AD6">
-        <v>136.9</v>
+        <v>188</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>136.9</v>
+        <v>188</v>
       </c>
       <c r="AG6">
-        <v>-162.7</v>
+        <v>-192</v>
       </c>
       <c r="AH6">
-        <v>0.05344733348949793</v>
+        <v>0.272938443670151</v>
       </c>
       <c r="AI6">
-        <v>0.1573201562859113</v>
+        <v>0.1685191825026892</v>
       </c>
       <c r="AJ6">
-        <v>-0.07193385798921213</v>
+        <v>-0.6217616580310881</v>
       </c>
       <c r="AK6">
-        <v>-0.2851384507535928</v>
+        <v>-0.2610114192495921</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1180,7 +1204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Federal Bank Limited (NSEI:FEDERALBNK)</t>
+          <t>HDFC Bank Limited (NSEI:HDFCBANK)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1188,8 +1212,14 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.167</v>
+      </c>
+      <c r="E7">
+        <v>0.205</v>
+      </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>0.188</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1198,91 +1228,88 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0001403742591038273</v>
+        <v>-0.004969634399550198</v>
       </c>
       <c r="J7">
-        <v>9.91876733648579e-05</v>
+        <v>-0.003711235451227465</v>
       </c>
       <c r="K7">
-        <v>221.1</v>
+        <v>4021.6</v>
       </c>
       <c r="L7">
-        <v>0.2922670191672174</v>
+        <v>0.4048115154260405</v>
       </c>
       <c r="M7">
-        <v>41.7</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.0169374492282697</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.1886024423337856</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>41.7</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.0169374492282697</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.1886024423337856</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>1624.3</v>
+        <v>14907.6</v>
       </c>
       <c r="V7">
-        <v>0.6597481722177092</v>
+        <v>0.1376148821546335</v>
       </c>
       <c r="W7">
-        <v>0.2256122448979592</v>
+        <v>0.1641630200509438</v>
       </c>
       <c r="X7">
-        <v>0.0578850235553275</v>
+        <v>0.04737932155033549</v>
       </c>
       <c r="Y7">
-        <v>0.1677272213426317</v>
+        <v>0.1167836985006083</v>
       </c>
       <c r="Z7">
-        <v>0.6633642937283583</v>
+        <v>0.2350757029491238</v>
       </c>
       <c r="AA7">
-        <v>6.579756088823804e-05</v>
+        <v>-0.0008724212825070052</v>
       </c>
       <c r="AB7">
-        <v>0.04870743248678058</v>
+        <v>0.04506300304346968</v>
       </c>
       <c r="AC7">
-        <v>-0.04864163492589234</v>
+        <v>-0.04593542432597669</v>
       </c>
       <c r="AD7">
-        <v>1265.1</v>
+        <v>23650.4</v>
       </c>
       <c r="AE7">
-        <v>2.399034364939773</v>
+        <v>1032.354164711657</v>
       </c>
       <c r="AF7">
-        <v>1267.49903436494</v>
+        <v>24682.75416471166</v>
       </c>
       <c r="AG7">
-        <v>-356.8009656350603</v>
+        <v>9775.154164711659</v>
       </c>
       <c r="AH7">
-        <v>0.3398577188747737</v>
+        <v>0.1855690548639723</v>
       </c>
       <c r="AI7">
-        <v>0.3872000636196415</v>
+        <v>0.4852223634240618</v>
       </c>
       <c r="AJ7">
-        <v>-0.1694856209843806</v>
+        <v>0.0827676544863236</v>
       </c>
       <c r="AK7">
-        <v>-0.2163480321054483</v>
+        <v>0.2718238618028426</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1291,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>2158.873720136519</v>
+        <v>150.5436028007639</v>
       </c>
       <c r="AP7">
-        <v>-608.8753679779186</v>
+        <v>62.22249627442176</v>
       </c>
     </row>
     <row r="8">
@@ -1314,10 +1341,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.109</v>
+        <v>0.09609999999999999</v>
       </c>
       <c r="E8">
-        <v>0.0397</v>
+        <v>0.00577</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1332,28 +1359,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>68.40000000000001</v>
+        <v>63.4</v>
       </c>
       <c r="L8">
-        <v>0.2179732313575526</v>
+        <v>0.1937060800488848</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>0.001</v>
       </c>
       <c r="N8">
-        <v>0.04194337644180356</v>
+        <v>4.068348250610252e-06</v>
       </c>
       <c r="O8">
-        <v>0.1754385964912281</v>
+        <v>1.577287066246057e-05</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>0.001</v>
       </c>
       <c r="Q8">
-        <v>0.04194337644180356</v>
+        <v>4.068348250610252e-06</v>
       </c>
       <c r="R8">
-        <v>0.1754385964912281</v>
+        <v>1.577287066246057e-05</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1362,55 +1389,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>491.2</v>
+        <v>426.6</v>
       </c>
       <c r="V8">
-        <v>1.716882209017826</v>
+        <v>1.735557363710334</v>
       </c>
       <c r="W8">
-        <v>0.08887733887733888</v>
+        <v>0.07531480161558565</v>
       </c>
       <c r="X8">
-        <v>0.07174529257736165</v>
+        <v>0.07044249120315309</v>
       </c>
       <c r="Y8">
-        <v>0.01713204629997724</v>
+        <v>0.004872310412432565</v>
       </c>
       <c r="Z8">
-        <v>0.4292749658002737</v>
+        <v>0.5090202177293934</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04936220077309614</v>
+        <v>0.04650298238401775</v>
       </c>
       <c r="AC8">
-        <v>-0.04936220077309614</v>
+        <v>-0.04650298238401775</v>
       </c>
       <c r="AD8">
-        <v>346.5</v>
+        <v>302.6</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>346.5</v>
+        <v>302.6</v>
       </c>
       <c r="AG8">
-        <v>-144.7</v>
+        <v>-124</v>
       </c>
       <c r="AH8">
-        <v>0.5477394878280114</v>
+        <v>0.5517870167760758</v>
       </c>
       <c r="AI8">
-        <v>0.2915930320626104</v>
+        <v>0.2557255133947435</v>
       </c>
       <c r="AJ8">
-        <v>-1.023338048090523</v>
+        <v>-1.018062397372742</v>
       </c>
       <c r="AK8">
-        <v>-0.207574236121073</v>
+        <v>-0.1638694330646227</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1427,7 +1454,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited (BSE:500247)</t>
+          <t>Bank of Maharashtra (BSE:532525)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1435,15 +1462,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D9">
-        <v>0.211</v>
-      </c>
-      <c r="E9">
-        <v>0.252</v>
-      </c>
-      <c r="F9">
-        <v>0.211</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1451,16 +1469,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.0001021888157207228</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-7.241330218865246e-05</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1163.7</v>
+        <v>58.8</v>
       </c>
       <c r="L9">
-        <v>0.2507866040256886</v>
+        <v>0.1135354315504924</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1484,67 +1502,61 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>2181.9</v>
+        <v>750.5</v>
       </c>
       <c r="V9">
-        <v>0.04824661296349939</v>
+        <v>0.6406863582038586</v>
       </c>
       <c r="W9">
-        <v>0.1553236075332684</v>
+        <v>0.03873262630920229</v>
       </c>
       <c r="X9">
-        <v>0.05141774426500105</v>
+        <v>0.05625371555071827</v>
       </c>
       <c r="Y9">
-        <v>0.1039058632682673</v>
+        <v>-0.01752108924151598</v>
       </c>
       <c r="Z9">
-        <v>0.2968935482772307</v>
+        <v>0.4164187505025326</v>
       </c>
       <c r="AA9">
-        <v>-2.149904222926038e-05</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04936876484404407</v>
+        <v>0.04690536247413928</v>
       </c>
       <c r="AC9">
-        <v>-0.04939026388627334</v>
+        <v>-0.04690536247413928</v>
       </c>
       <c r="AD9">
-        <v>8232.6</v>
+        <v>719.1</v>
       </c>
       <c r="AE9">
-        <v>356.8708827135365</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>8589.470882713536</v>
+        <v>719.1</v>
       </c>
       <c r="AG9">
-        <v>6407.570882713537</v>
+        <v>-31.39999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.1596159233628817</v>
+        <v>0.3803755620206295</v>
       </c>
       <c r="AI9">
-        <v>0.4923808366680849</v>
+        <v>0.306091176095007</v>
       </c>
       <c r="AJ9">
-        <v>0.1241020403480084</v>
+        <v>-0.02754385964912279</v>
       </c>
       <c r="AK9">
-        <v>0.4198142624642551</v>
+        <v>-0.01963972979734799</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>116.1156558533145</v>
-      </c>
-      <c r="AP9">
-        <v>90.37476562360418</v>
       </c>
     </row>
     <row r="10">
@@ -1555,7 +1567,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Indian Overseas Bank (BSE:532388)</t>
+          <t>IndusInd Bank Limited (BSE:532187)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1563,23 +1575,32 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.141</v>
+      </c>
+      <c r="E10">
+        <v>0.06660000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.18</v>
+      </c>
       <c r="G10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>-0</v>
+        <v>0.003117821133471057</v>
       </c>
       <c r="J10">
-        <v>-0</v>
+        <v>0.002366186886139749</v>
       </c>
       <c r="K10">
-        <v>-697.3</v>
+        <v>380.6</v>
       </c>
       <c r="L10">
-        <v>2.600895188362551</v>
+        <v>0.2367062628272903</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1588,7 +1609,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1597,67 +1618,73 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>3472.5</v>
+        <v>6234.9</v>
       </c>
       <c r="V10">
-        <v>1.744010848274823</v>
+        <v>0.6719583562352484</v>
       </c>
       <c r="W10">
-        <v>-0.4191008534679649</v>
+        <v>0.08017864290378986</v>
       </c>
       <c r="X10">
-        <v>0.05410531527588554</v>
+        <v>0.0602607807263604</v>
       </c>
       <c r="Y10">
-        <v>-0.4732061687438504</v>
+        <v>0.01991786217742945</v>
       </c>
       <c r="Z10">
-        <v>-0.1942190669371197</v>
+        <v>0.1770847298472615</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.0004190155655001905</v>
       </c>
       <c r="AB10">
-        <v>0.04943951179981728</v>
+        <v>0.04766183210132394</v>
       </c>
       <c r="AC10">
-        <v>-0.04943951179981728</v>
+        <v>-0.04724281653582375</v>
       </c>
       <c r="AD10">
-        <v>647</v>
+        <v>7124.4</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>188.9342769974594</v>
       </c>
       <c r="AF10">
-        <v>647</v>
+        <v>7313.334276997459</v>
       </c>
       <c r="AG10">
-        <v>-2825.5</v>
+        <v>1078.434276997459</v>
       </c>
       <c r="AH10">
-        <v>0.2452522648876085</v>
+        <v>0.4407738168149988</v>
       </c>
       <c r="AI10">
-        <v>0.2486739949265893</v>
+        <v>0.5754437447882351</v>
       </c>
       <c r="AJ10">
-        <v>3.386265580057526</v>
+        <v>0.1041247750734094</v>
       </c>
       <c r="AK10">
-        <v>3.245090157344665</v>
+        <v>0.1665758278800498</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>166.4579439252336</v>
+      </c>
+      <c r="AP10">
+        <v>25.19706254666961</v>
       </c>
     </row>
     <row r="11">
@@ -1668,7 +1695,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IndusInd Bank Limited (BSE:532187)</t>
+          <t>ICICI Bank Limited (NSEI:ICICIBANK)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1677,13 +1704,13 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.224</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="E11">
-        <v>0.213</v>
+        <v>0.0138</v>
       </c>
       <c r="F11">
-        <v>0.219</v>
+        <v>0.274</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1692,91 +1719,88 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0008562294270633455</v>
+        <v>0.0003920232717561676</v>
       </c>
       <c r="J11">
-        <v>0.0005900110246154948</v>
+        <v>0.0003054459965699533</v>
       </c>
       <c r="K11">
-        <v>591.4</v>
+        <v>1893.3</v>
       </c>
       <c r="L11">
-        <v>0.3128438425730004</v>
+        <v>0.1518917271035235</v>
       </c>
       <c r="M11">
-        <v>76.8</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.005220689702053607</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.129861345958742</v>
+        <v>-0</v>
       </c>
       <c r="P11">
-        <v>76.8</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.005220689702053607</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>0.129861345958742</v>
+        <v>-0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>2162.5</v>
+        <v>20129.6</v>
       </c>
       <c r="V11">
-        <v>0.1470018421964964</v>
+        <v>0.3978936715266137</v>
       </c>
       <c r="W11">
-        <v>0.221473242706812</v>
+        <v>0.1140617751778732</v>
       </c>
       <c r="X11">
-        <v>0.0564689063347556</v>
+        <v>0.05389390369922969</v>
       </c>
       <c r="Y11">
-        <v>0.1650043363720564</v>
+        <v>0.06016787147864353</v>
       </c>
       <c r="Z11">
-        <v>0.3581315756227216</v>
+        <v>0.3637141658251126</v>
       </c>
       <c r="AA11">
-        <v>0.0002113015778803236</v>
+        <v>0.0001110950358470608</v>
       </c>
       <c r="AB11">
-        <v>0.04989574924758094</v>
+        <v>0.047467510960698</v>
       </c>
       <c r="AC11">
-        <v>-0.04968444766970062</v>
+        <v>-0.04735641592485094</v>
       </c>
       <c r="AD11">
-        <v>6306.5</v>
+        <v>25832.3</v>
       </c>
       <c r="AE11">
-        <v>220.4069194553973</v>
+        <v>31.06754161106861</v>
       </c>
       <c r="AF11">
-        <v>6526.906919455398</v>
+        <v>25863.36754161107</v>
       </c>
       <c r="AG11">
-        <v>4364.406919455398</v>
+        <v>5733.767541611069</v>
       </c>
       <c r="AH11">
-        <v>0.3073277956508467</v>
+        <v>0.3382876785965395</v>
       </c>
       <c r="AI11">
-        <v>0.5789443589096603</v>
+        <v>0.5517322134439889</v>
       </c>
       <c r="AJ11">
-        <v>0.2288011772559964</v>
+        <v>0.1017994191813858</v>
       </c>
       <c r="AK11">
-        <v>0.4790099771676079</v>
+        <v>0.214369950376463</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1785,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>137.9978118161926</v>
+        <v>2327.234234234234</v>
       </c>
       <c r="AP11">
-        <v>95.50124550230629</v>
+        <v>516.5556343793755</v>
       </c>
     </row>
     <row r="12">
@@ -1799,7 +1823,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HDFC Bank Limited (NSEI:HDFCBANK)</t>
+          <t>RBL Bank Limited (BSE:540065)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1807,14 +1831,8 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D12">
-        <v>0.191</v>
-      </c>
-      <c r="E12">
-        <v>0.207</v>
-      </c>
       <c r="F12">
-        <v>0.193</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1823,34 +1841,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.004008542520490915</v>
+        <v>0.006024797938604369</v>
       </c>
       <c r="J12">
-        <v>-0.002666452431881317</v>
+        <v>0.004545983899128751</v>
       </c>
       <c r="K12">
-        <v>3469.9</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="L12">
-        <v>0.3645465624474702</v>
+        <v>0.1313291139240506</v>
       </c>
       <c r="M12">
-        <v>834.1</v>
+        <v>7.15</v>
       </c>
       <c r="N12">
-        <v>0.008520101044046911</v>
+        <v>0.003779669080721045</v>
       </c>
       <c r="O12">
-        <v>0.2403815671921381</v>
+        <v>0.1076807228915663</v>
       </c>
       <c r="P12">
-        <v>834.1</v>
+        <v>7.15</v>
       </c>
       <c r="Q12">
-        <v>0.008520101044046911</v>
+        <v>0.003779669080721045</v>
       </c>
       <c r="R12">
-        <v>0.2403815671921381</v>
+        <v>0.1076807228915663</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1859,55 +1877,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>10487.7</v>
+        <v>1082.4</v>
       </c>
       <c r="V12">
-        <v>0.1071289578223844</v>
+        <v>0.5721837500660781</v>
       </c>
       <c r="W12">
-        <v>0.172478240770657</v>
+        <v>0.06027049105927203</v>
       </c>
       <c r="X12">
-        <v>0.05169426093546838</v>
+        <v>0.06490375823563756</v>
       </c>
       <c r="Y12">
-        <v>0.1207839798351886</v>
+        <v>-0.004633267176365523</v>
       </c>
       <c r="Z12">
-        <v>0.2037329876681605</v>
+        <v>0.1927263114895551</v>
       </c>
       <c r="AA12">
-        <v>-0.0005432443204222131</v>
+        <v>0.0008761307089699901</v>
       </c>
       <c r="AB12">
-        <v>0.04947397877098204</v>
+        <v>0.04837263145668878</v>
       </c>
       <c r="AC12">
-        <v>-0.05001722309140425</v>
+        <v>-0.04749650074771879</v>
       </c>
       <c r="AD12">
-        <v>19002.6</v>
+        <v>1802.8</v>
       </c>
       <c r="AE12">
-        <v>951.2745556352036</v>
+        <v>70.26931081120816</v>
       </c>
       <c r="AF12">
-        <v>19953.8745556352</v>
+        <v>1873.069310811208</v>
       </c>
       <c r="AG12">
-        <v>9466.1745556352</v>
+        <v>790.6693108112081</v>
       </c>
       <c r="AH12">
-        <v>0.1693133143804756</v>
+        <v>0.497525653280363</v>
       </c>
       <c r="AI12">
-        <v>0.4666898936356155</v>
+        <v>0.5587633371531389</v>
       </c>
       <c r="AJ12">
-        <v>0.08816892051474728</v>
+        <v>0.2947652687586453</v>
       </c>
       <c r="AK12">
-        <v>0.2933567417113021</v>
+        <v>0.3483478726428923</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1916,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>124.9349112426035</v>
+        <v>105.4269005847953</v>
       </c>
       <c r="AP12">
-        <v>62.23651910345299</v>
+        <v>46.2379713924683</v>
       </c>
     </row>
     <row r="13">
@@ -1930,7 +1948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Central Bank of India (BSE:532885)</t>
+          <t>UCO Bank (BSE:532505)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1938,6 +1956,9 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D13">
+        <v>-0.243</v>
+      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -1951,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-577.4</v>
+        <v>-121.3</v>
       </c>
       <c r="L13">
-        <v>-1.391996142719383</v>
+        <v>-0.8726618705035971</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -1978,55 +1999,55 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>3841.5</v>
+        <v>912.8</v>
       </c>
       <c r="V13">
-        <v>2.67495299770211</v>
+        <v>0.5300197421902217</v>
       </c>
       <c r="W13">
-        <v>-0.3560900400863398</v>
+        <v>-0.0472444011684518</v>
       </c>
       <c r="X13">
-        <v>0.05788030919642008</v>
+        <v>0.062493826872645</v>
       </c>
       <c r="Y13">
-        <v>-0.4139703492827599</v>
+        <v>-0.1097382280410968</v>
       </c>
       <c r="Z13">
-        <v>0.3649448799500268</v>
+        <v>0.04599146345498461</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05013407623300373</v>
+        <v>0.04802270055675498</v>
       </c>
       <c r="AC13">
-        <v>-0.05013407623300373</v>
+        <v>-0.04802270055675498</v>
       </c>
       <c r="AD13">
-        <v>739</v>
+        <v>1524.7</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>739</v>
+        <v>1524.7</v>
       </c>
       <c r="AG13">
-        <v>-3102.5</v>
+        <v>611.9000000000001</v>
       </c>
       <c r="AH13">
-        <v>0.3397544940462507</v>
+        <v>0.4695863746958637</v>
       </c>
       <c r="AI13">
-        <v>0.2071420562843368</v>
+        <v>0.3672471517691548</v>
       </c>
       <c r="AJ13">
-        <v>1.861797887662026</v>
+        <v>0.2621567199348785</v>
       </c>
       <c r="AK13">
-        <v>11.32712668857247</v>
+        <v>0.1889221649325389</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2043,7 +2064,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>United Bank of India (BSE:533171)</t>
+          <t>The Federal Bank Limited (NSEI:FEDERALBNK)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2051,8 +2072,8 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D14">
-        <v>-0.114</v>
+      <c r="F14">
+        <v>0.122</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2061,16 +2082,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.008071401037215375</v>
+        <v>0.0002954250419265234</v>
       </c>
       <c r="J14">
-        <v>-0.008071401037215375</v>
+        <v>0.0002235444161151597</v>
       </c>
       <c r="K14">
-        <v>-115.4</v>
+        <v>204.8</v>
       </c>
       <c r="L14">
-        <v>-1.512450851900393</v>
+        <v>0.264839001681107</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2079,7 +2100,7 @@
         <v>-0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P14">
         <v>-0</v>
@@ -2088,61 +2109,61 @@
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1492.4</v>
+        <v>2687.8</v>
       </c>
       <c r="V14">
-        <v>1.320357427231708</v>
+        <v>1.475111135502991</v>
       </c>
       <c r="W14">
-        <v>-0.1101565483008782</v>
+        <v>0.1032154016732184</v>
       </c>
       <c r="X14">
-        <v>0.05365610349539816</v>
+        <v>0.06529674279209045</v>
       </c>
       <c r="Y14">
-        <v>-0.1638126517962764</v>
+        <v>0.03791865888112797</v>
       </c>
       <c r="Z14">
-        <v>0.1319659973722868</v>
+        <v>0.4752619373251324</v>
       </c>
       <c r="AA14">
-        <v>-0.001065150488067837</v>
+        <v>0.0001062421522811064</v>
       </c>
       <c r="AB14">
-        <v>0.0493433938482324</v>
+        <v>0.04842622813247219</v>
       </c>
       <c r="AC14">
-        <v>-0.05040854433630024</v>
+        <v>-0.04831998598019108</v>
       </c>
       <c r="AD14">
-        <v>283.2</v>
+        <v>1833.2</v>
       </c>
       <c r="AE14">
-        <v>58.57923949569766</v>
+        <v>2.102739075391098</v>
       </c>
       <c r="AF14">
-        <v>341.7792394956977</v>
+        <v>1835.302739075391</v>
       </c>
       <c r="AG14">
-        <v>-1150.620760504302</v>
+        <v>-852.497260924609</v>
       </c>
       <c r="AH14">
-        <v>0.2321744851267543</v>
+        <v>0.5018049337217275</v>
       </c>
       <c r="AI14">
-        <v>0.1518627886980253</v>
+        <v>0.4615485048936827</v>
       </c>
       <c r="AJ14">
-        <v>56.62291823481161</v>
+        <v>-0.8792232391355936</v>
       </c>
       <c r="AK14">
-        <v>-1.517610481222932</v>
+        <v>-0.6615671650180567</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2151,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>25.51351351351351</v>
+        <v>2824.653312788906</v>
       </c>
       <c r="AP14">
-        <v>-103.6595279733606</v>
+        <v>-1313.55510157875</v>
       </c>
     </row>
     <row r="15">
@@ -2165,7 +2186,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UCO Bank (BSE:532505)</t>
+          <t>The Jammu and Kashmir Bank Limited (BSE:532209)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2173,23 +2194,26 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="F15">
+        <v>0.205</v>
+      </c>
       <c r="G15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>-572.4</v>
+        <v>-33.8</v>
       </c>
       <c r="L15">
-        <v>4.67265306122449</v>
+        <v>-0.0920228695888919</v>
       </c>
       <c r="M15">
         <v>-0</v>
@@ -2213,55 +2237,55 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1315.2</v>
+        <v>621.9</v>
       </c>
       <c r="V15">
-        <v>0.6499629355077836</v>
+        <v>2.755427558706247</v>
       </c>
       <c r="W15">
-        <v>-0.3114593535749265</v>
+        <v>-0.03595362195511115</v>
       </c>
       <c r="X15">
-        <v>0.06504909286312864</v>
+        <v>0.07009055354650558</v>
       </c>
       <c r="Y15">
-        <v>-0.3765084464380552</v>
+        <v>-0.1060441755016167</v>
       </c>
       <c r="Z15">
-        <v>-0.05681291160374734</v>
+        <v>0.2801037138717304</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.05106626327276872</v>
+        <v>0.04901345249655714</v>
       </c>
       <c r="AC15">
-        <v>-0.05106626327276872</v>
+        <v>-0.04901345249655714</v>
       </c>
       <c r="AD15">
-        <v>1770</v>
+        <v>274.4</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>1770</v>
+        <v>274.4</v>
       </c>
       <c r="AG15">
-        <v>454.8</v>
+        <v>-347.5</v>
       </c>
       <c r="AH15">
-        <v>0.4665875840253064</v>
+        <v>0.5486902619476105</v>
       </c>
       <c r="AI15">
-        <v>0.4080691642651297</v>
+        <v>0.2392953693206593</v>
       </c>
       <c r="AJ15">
-        <v>0.1835128919017068</v>
+        <v>2.85303776683087</v>
       </c>
       <c r="AK15">
-        <v>0.1504814214340072</v>
+        <v>-0.662157012195122</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2278,7 +2302,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Karur Vysya Bank Limited (NSEI:KARURVYSYA)</t>
+          <t>Punjab National Bank (BSE:532461)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2286,12 +2310,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D16">
-        <v>0.0611</v>
-      </c>
-      <c r="E16">
-        <v>-0.131</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -2305,85 +2323,82 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.8</v>
+        <v>-12.5</v>
       </c>
       <c r="L16">
-        <v>0.1081460674157303</v>
+        <v>-0.00543147649256974</v>
       </c>
       <c r="M16">
-        <v>10.58</v>
+        <v>-0</v>
       </c>
       <c r="N16">
-        <v>0.01563700857227313</v>
+        <v>-0</v>
       </c>
       <c r="O16">
-        <v>0.3435064935064934</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>8.539999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q16">
-        <v>0.01262193319538871</v>
+        <v>-0</v>
       </c>
       <c r="R16">
-        <v>0.2772727272727272</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>2.039999999999999</v>
-      </c>
-      <c r="T16">
-        <v>0.1928166351606805</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>767.3</v>
+        <v>14338.6</v>
       </c>
       <c r="V16">
-        <v>1.134052616021283</v>
+        <v>3.02368149132241</v>
       </c>
       <c r="W16">
-        <v>0.03523624299279259</v>
+        <v>-0.001375001375001375</v>
       </c>
       <c r="X16">
-        <v>0.06034955905319703</v>
+        <v>0.08144602297381839</v>
       </c>
       <c r="Y16">
-        <v>-0.02511331606040444</v>
+        <v>-0.08282102434881977</v>
       </c>
       <c r="Z16">
-        <v>0.3975432719151312</v>
+        <v>1.500847789226556</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.05153812107012643</v>
+        <v>0.05004384618734407</v>
       </c>
       <c r="AC16">
-        <v>-0.05153812107012643</v>
+        <v>-0.05004384618734407</v>
       </c>
       <c r="AD16">
-        <v>432.1</v>
+        <v>8107.7</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>432.1</v>
+        <v>8107.7</v>
       </c>
       <c r="AG16">
-        <v>-335.1999999999999</v>
+        <v>-6230.900000000001</v>
       </c>
       <c r="AH16">
-        <v>0.3897357265265626</v>
+        <v>0.6309592367196377</v>
       </c>
       <c r="AI16">
-        <v>0.3195296901575094</v>
+        <v>0.4017312542426629</v>
       </c>
       <c r="AJ16">
-        <v>-0.9818394844756879</v>
+        <v>4.185182697474476</v>
       </c>
       <c r="AK16">
-        <v>-0.5729914529914527</v>
+        <v>-1.066332380675303</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2400,7 +2415,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited (NSEI:ICICIBANK)</t>
+          <t>IDFC First Bank Limited (BSE:539437)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2408,15 +2423,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D17">
-        <v>0.105</v>
-      </c>
-      <c r="E17">
-        <v>-0.103</v>
-      </c>
-      <c r="F17">
-        <v>0.5529999999999999</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -2424,16 +2430,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0002245218167993739</v>
+        <v>0.008505738251131788</v>
       </c>
       <c r="J17">
-        <v>0.0001287559393739617</v>
+        <v>0.008505738251131788</v>
       </c>
       <c r="K17">
-        <v>946.8</v>
+        <v>-183.1</v>
       </c>
       <c r="L17">
-        <v>0.08131575557177824</v>
+        <v>-0.2789882675605668</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2442,7 +2448,7 @@
         <v>-0</v>
       </c>
       <c r="O17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>-0</v>
@@ -2451,61 +2457,61 @@
         <v>-0</v>
       </c>
       <c r="R17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>11309.1</v>
+        <v>712.2</v>
       </c>
       <c r="V17">
-        <v>0.2308658054611968</v>
+        <v>0.2474463206170524</v>
       </c>
       <c r="W17">
-        <v>0.06189044319518891</v>
+        <v>-0.07647967921139467</v>
       </c>
       <c r="X17">
-        <v>0.05941559386716008</v>
+        <v>0.09488576304251728</v>
       </c>
       <c r="Y17">
-        <v>0.002474849328028828</v>
+        <v>-0.171365442253912</v>
       </c>
       <c r="Z17">
-        <v>0.3145384750938737</v>
+        <v>0.05816566727487189</v>
       </c>
       <c r="AA17">
-        <v>4.049869682996517e-05</v>
+        <v>0.0004947419410424823</v>
       </c>
       <c r="AB17">
-        <v>0.05167032592188043</v>
+        <v>0.05086409379423851</v>
       </c>
       <c r="AC17">
-        <v>-0.05162982722505047</v>
+        <v>-0.05036935185319603</v>
       </c>
       <c r="AD17">
-        <v>28950</v>
+        <v>6489</v>
       </c>
       <c r="AE17">
-        <v>35.52890113048245</v>
+        <v>114.588419928911</v>
       </c>
       <c r="AF17">
-        <v>28985.52890113048</v>
+        <v>6603.588419928911</v>
       </c>
       <c r="AG17">
-        <v>17676.42890113048</v>
+        <v>5891.388419928911</v>
       </c>
       <c r="AH17">
-        <v>0.3717469441526866</v>
+        <v>0.696449670407054</v>
       </c>
       <c r="AI17">
-        <v>0.6226252887859777</v>
+        <v>0.7338226802884481</v>
       </c>
       <c r="AJ17">
-        <v>0.2651648801050925</v>
+        <v>0.6717975961723264</v>
       </c>
       <c r="AK17">
-        <v>0.5015353956688562</v>
+        <v>0.7109460524376094</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2514,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>2978.395061728395</v>
+        <v>227.6842105263158</v>
       </c>
       <c r="AP17">
-        <v>1818.562644149226</v>
+        <v>206.7153831554004</v>
       </c>
     </row>
     <row r="18">
@@ -2528,7 +2534,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Canara Bank (BSE:532483)</t>
+          <t>Axis Bank Limited (BSE:532215)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2536,6 +2542,9 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="F18">
+        <v>0.476</v>
+      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -2543,94 +2552,103 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-0.009218363432271387</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-0.009218363432271387</v>
       </c>
       <c r="K18">
-        <v>101.8</v>
+        <v>482.7</v>
       </c>
       <c r="L18">
-        <v>0.0674350821409645</v>
+        <v>0.1829101932550208</v>
       </c>
       <c r="M18">
-        <v>-0</v>
+        <v>0.257</v>
       </c>
       <c r="N18">
-        <v>-0</v>
+        <v>9.881802871490422e-06</v>
       </c>
       <c r="O18">
-        <v>-0</v>
+        <v>0.0005324217940749948</v>
       </c>
       <c r="P18">
-        <v>-0</v>
+        <v>0.257</v>
       </c>
       <c r="Q18">
-        <v>-0</v>
+        <v>9.881802871490422e-06</v>
       </c>
       <c r="R18">
-        <v>-0</v>
+        <v>0.0005324217940749948</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
       <c r="U18">
-        <v>10051.1</v>
+        <v>6931.2</v>
       </c>
       <c r="V18">
-        <v>3.137537068830966</v>
+        <v>0.2665087628905619</v>
       </c>
       <c r="W18">
-        <v>0.01901701817638378</v>
+        <v>0.0401373667492641</v>
       </c>
       <c r="X18">
-        <v>0.0789675408296623</v>
+        <v>0.05940538450016317</v>
       </c>
       <c r="Y18">
-        <v>-0.05995052265327852</v>
+        <v>-0.01926801775089906</v>
       </c>
       <c r="Z18">
-        <v>0.2929839883551673</v>
+        <v>0.1166706056897074</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>-0.001075512045110953</v>
       </c>
       <c r="AB18">
-        <v>0.05213125297261892</v>
+        <v>0.04948739728247483</v>
       </c>
       <c r="AC18">
-        <v>-0.05213125297261892</v>
+        <v>-0.05056290932758578</v>
       </c>
       <c r="AD18">
-        <v>5042.1</v>
+        <v>18836.3</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>694.6363054888209</v>
       </c>
       <c r="AF18">
-        <v>5042.1</v>
+        <v>19530.93630548882</v>
       </c>
       <c r="AG18">
-        <v>-5009</v>
+        <v>12599.73630548882</v>
       </c>
       <c r="AH18">
-        <v>0.6114897642378966</v>
+        <v>0.4288899834738741</v>
       </c>
       <c r="AI18">
-        <v>0.4361866862753579</v>
+        <v>0.5911329621885626</v>
       </c>
       <c r="AJ18">
-        <v>2.774300747715314</v>
+        <v>0.3263577025187828</v>
       </c>
       <c r="AK18">
-        <v>-3.320737204985416</v>
+        <v>0.4825888322187082</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>164.3656195462478</v>
+      </c>
+      <c r="AP18">
+        <v>109.9453429798326</v>
       </c>
     </row>
     <row r="19">
@@ -2650,7 +2668,7 @@
         </is>
       </c>
       <c r="F19">
-        <v>1.859</v>
+        <v>1.017</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2659,16 +2677,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0005711683399121579</v>
+        <v>0.0009150768191685093</v>
       </c>
       <c r="J19">
-        <v>0.0004146586400651772</v>
+        <v>0.0009150768191685093</v>
       </c>
       <c r="K19">
-        <v>216.2</v>
+        <v>45.3</v>
       </c>
       <c r="L19">
-        <v>0.08084056236912952</v>
+        <v>0.0176642620393839</v>
       </c>
       <c r="M19">
         <v>-0</v>
@@ -2692,55 +2710,55 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>17144.1</v>
+        <v>19815.4</v>
       </c>
       <c r="V19">
-        <v>2.591426455250389</v>
+        <v>5.092100529372463</v>
       </c>
       <c r="W19">
-        <v>0.03220137027107536</v>
+        <v>0.004257438769947932</v>
       </c>
       <c r="X19">
-        <v>0.08126672704376733</v>
+        <v>0.09966529536169746</v>
       </c>
       <c r="Y19">
-        <v>-0.04906535677269197</v>
+        <v>-0.09540785659174954</v>
       </c>
       <c r="Z19">
-        <v>0.2069742788371904</v>
+        <v>0.5482200143491714</v>
       </c>
       <c r="AA19">
-        <v>8.582367299110011e-05</v>
+        <v>0.0005016634269351543</v>
       </c>
       <c r="AB19">
-        <v>0.05225388506864412</v>
+        <v>0.05108978658048519</v>
       </c>
       <c r="AC19">
-        <v>-0.05216806139565302</v>
+        <v>-0.05058812315355003</v>
       </c>
       <c r="AD19">
-        <v>11138.7</v>
+        <v>9662.5</v>
       </c>
       <c r="AE19">
-        <v>38.11233695869463</v>
+        <v>74.7664274862118</v>
       </c>
       <c r="AF19">
-        <v>11176.8123369587</v>
+        <v>9737.266427486211</v>
       </c>
       <c r="AG19">
-        <v>-5967.287663041303</v>
+        <v>-10078.13357251379</v>
       </c>
       <c r="AH19">
-        <v>0.6281750505656341</v>
+        <v>0.7144694955515348</v>
       </c>
       <c r="AI19">
-        <v>0.5111242931728215</v>
+        <v>0.4785493300695512</v>
       </c>
       <c r="AJ19">
-        <v>-9.202921232236536</v>
+        <v>1.628991042589676</v>
       </c>
       <c r="AK19">
-        <v>-1.26344951850874</v>
+        <v>-18.94149499363966</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2749,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>1217.344262295082</v>
+        <v>558.5260115606936</v>
       </c>
       <c r="AP19">
-        <v>-652.1625861247326</v>
+        <v>-582.5510735557104</v>
       </c>
     </row>
     <row r="20">
@@ -2763,7 +2781,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Punjab &amp; Sind Bank (BSE:533295)</t>
+          <t>State Bank of India (NSEI:SBIN)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2772,7 +2790,13 @@
         </is>
       </c>
       <c r="D20">
-        <v>-0.0968</v>
+        <v>0.09699999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.0518</v>
+      </c>
+      <c r="F20">
+        <v>0.446</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2781,16 +2805,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0002097451901855921</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0002097451901855921</v>
       </c>
       <c r="K20">
-        <v>-75.8</v>
+        <v>3191.2</v>
       </c>
       <c r="L20">
-        <v>-0.569496619083396</v>
+        <v>0.1458194346709558</v>
       </c>
       <c r="M20">
         <v>-0</v>
@@ -2799,7 +2823,7 @@
         <v>-0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P20">
         <v>-0</v>
@@ -2808,67 +2832,73 @@
         <v>-0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1130.5</v>
+        <v>29613.7</v>
       </c>
       <c r="V20">
-        <v>5.440327237728585</v>
+        <v>0.8812919238392268</v>
       </c>
       <c r="W20">
-        <v>-0.09689377476671354</v>
+        <v>0.09368000493176259</v>
       </c>
       <c r="X20">
-        <v>0.08043666378670004</v>
+        <v>0.07162837107209631</v>
       </c>
       <c r="Y20">
-        <v>-0.1773304385534136</v>
+        <v>0.02205163385966628</v>
       </c>
       <c r="Z20">
-        <v>0.2621626945046287</v>
+        <v>0.5091674020509697</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>0.0001067954135794845</v>
       </c>
       <c r="AB20">
-        <v>0.05221084591855821</v>
+        <v>0.05098846983537948</v>
       </c>
       <c r="AC20">
-        <v>-0.05221084591855821</v>
+        <v>-0.0508816744218</v>
       </c>
       <c r="AD20">
-        <v>342.4</v>
+        <v>43013.9</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>87.04905205432196</v>
       </c>
       <c r="AF20">
-        <v>342.4</v>
+        <v>43100.94905205433</v>
       </c>
       <c r="AG20">
-        <v>-788.1</v>
+        <v>13487.24905205433</v>
       </c>
       <c r="AH20">
-        <v>0.6223191566703016</v>
+        <v>0.5619159684880314</v>
       </c>
       <c r="AI20">
-        <v>0.2843381498090018</v>
+        <v>0.5352197184932164</v>
       </c>
       <c r="AJ20">
-        <v>1.358090642770981</v>
+        <v>0.2864152109968578</v>
       </c>
       <c r="AK20">
-        <v>-10.69335142469472</v>
+        <v>0.2648934623011335</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1955.177272727273</v>
+      </c>
+      <c r="AP20">
+        <v>613.0567750933784</v>
       </c>
     </row>
     <row r="21">
@@ -2879,7 +2909,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Oriental Bank of Commerce (BSE:500315)</t>
+          <t>Equitas Small Finance Bank Limited (BSE:543243)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2888,10 +2918,13 @@
         </is>
       </c>
       <c r="D21">
-        <v>-0.13</v>
+        <v>0.414</v>
       </c>
       <c r="E21">
-        <v>-0.132</v>
+        <v>0.309</v>
+      </c>
+      <c r="F21">
+        <v>0.34</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2900,16 +2933,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002079352231263241</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.002079352231263241</v>
       </c>
       <c r="K21">
-        <v>82.8</v>
+        <v>40.5</v>
       </c>
       <c r="L21">
-        <v>0.2652146060217809</v>
+        <v>0.1866359447004608</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -2933,61 +2966,67 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>2028.6</v>
+        <v>258.5</v>
       </c>
       <c r="V21">
-        <v>2.024348867378505</v>
+        <v>0.4404498210938831</v>
       </c>
       <c r="W21">
-        <v>0.0522793281980048</v>
+        <v>0.1212211912601018</v>
       </c>
       <c r="X21">
-        <v>0.08486243135466785</v>
+        <v>0.07663220925388527</v>
       </c>
       <c r="Y21">
-        <v>-0.03258310315666305</v>
+        <v>0.04458898200621648</v>
       </c>
       <c r="Z21">
-        <v>0.1428244658950547</v>
+        <v>0.2390015499017567</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>0.0004969684060635908</v>
       </c>
       <c r="AB21">
-        <v>0.05242588116492043</v>
+        <v>0.05141250787740617</v>
       </c>
       <c r="AC21">
-        <v>-0.05242588116492043</v>
+        <v>-0.05091553947134258</v>
       </c>
       <c r="AD21">
-        <v>1874</v>
+        <v>839.7</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>40.84390282907938</v>
       </c>
       <c r="AF21">
-        <v>1874</v>
+        <v>880.5439028290795</v>
       </c>
       <c r="AG21">
-        <v>-154.5999999999999</v>
+        <v>622.0439028290795</v>
       </c>
       <c r="AH21">
-        <v>0.6515767880115434</v>
+        <v>0.6000528545803232</v>
       </c>
       <c r="AI21">
-        <v>0.4089024656338643</v>
+        <v>0.6902740654160924</v>
       </c>
       <c r="AJ21">
-        <v>-0.1824188790560471</v>
+        <v>0.5145349601196707</v>
       </c>
       <c r="AK21">
-        <v>-0.0605230191042906</v>
+        <v>0.6115593881051927</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>97.41299303944317</v>
+      </c>
+      <c r="AP21">
+        <v>72.16286575743382</v>
       </c>
     </row>
     <row r="22">
@@ -2998,7 +3037,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The Lakshmi Vilas Bank Limited (BSE:534690)</t>
+          <t>Bank of India Limited (BSE:532149)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3007,97 +3046,97 @@
         </is>
       </c>
       <c r="G22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>-174.4</v>
+        <v>-282</v>
       </c>
       <c r="L22">
-        <v>1.768762677484787</v>
+        <v>-0.2869936902096479</v>
       </c>
       <c r="M22">
-        <v>0.005</v>
+        <v>5.05</v>
       </c>
       <c r="N22">
-        <v>6.127450980392157e-05</v>
+        <v>0.002313224314048829</v>
       </c>
       <c r="O22">
-        <v>-2.86697247706422e-05</v>
+        <v>-0.01790780141843971</v>
       </c>
       <c r="P22">
-        <v>0.005</v>
+        <v>-0</v>
       </c>
       <c r="Q22">
-        <v>6.127450980392157e-05</v>
+        <v>-0</v>
       </c>
       <c r="R22">
-        <v>-2.86697247706422e-05</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>319.4</v>
+        <v>13961.2</v>
       </c>
       <c r="V22">
-        <v>3.91421568627451</v>
+        <v>6.395126196692777</v>
       </c>
       <c r="W22">
-        <v>-0.6160367361356411</v>
+        <v>-0.04127332601536773</v>
       </c>
       <c r="X22">
-        <v>0.08491172175972674</v>
+        <v>0.06649806532232828</v>
       </c>
       <c r="Y22">
-        <v>-0.7009484578953679</v>
+        <v>-0.107771391337696</v>
       </c>
       <c r="Z22">
-        <v>-0.1978330658105939</v>
+        <v>-1.041220726925929</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
-        <v>0.05242808861570769</v>
+        <v>0.05095281706556361</v>
       </c>
       <c r="AC22">
-        <v>-0.05242808861570769</v>
+        <v>-0.05095281706556361</v>
       </c>
       <c r="AD22">
-        <v>152.8</v>
+        <v>2313</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>152.8</v>
+        <v>2313</v>
       </c>
       <c r="AG22">
-        <v>-166.6</v>
+        <v>-11648.2</v>
       </c>
       <c r="AH22">
-        <v>0.6518771331058021</v>
+        <v>0.5144458530726629</v>
       </c>
       <c r="AI22">
-        <v>0.4225663716814159</v>
+        <v>0.2674947090864934</v>
       </c>
       <c r="AJ22">
-        <v>1.96</v>
+        <v>1.23064732543766</v>
       </c>
       <c r="AK22">
-        <v>-3.947867298578194</v>
+        <v>2.191859699301883</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3114,7 +3153,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IDFC First Bank Limited (BSE:539437)</t>
+          <t>Canara Bank (BSE:532483)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3129,25 +3168,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.008762732342122813</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.008762732342122813</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>-428.7</v>
+        <v>-253.9</v>
       </c>
       <c r="L23">
-        <v>-0.7832998355563676</v>
+        <v>-0.09184633193459701</v>
       </c>
       <c r="M23">
-        <v>-0</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="N23">
-        <v>-0</v>
+        <v>0.002912754909040889</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>-0.03335959038991729</v>
       </c>
       <c r="P23">
         <v>-0</v>
@@ -3159,70 +3198,67 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>8.470000000000001</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>943.9</v>
+        <v>18359.4</v>
       </c>
       <c r="V23">
-        <v>0.310656924697209</v>
+        <v>6.313628391622821</v>
       </c>
       <c r="W23">
-        <v>-0.1892548119371358</v>
+        <v>-0.03955937801875915</v>
       </c>
       <c r="X23">
-        <v>0.1118346389085274</v>
+        <v>0.09682399165344063</v>
       </c>
       <c r="Y23">
-        <v>-0.3010894508456632</v>
+        <v>-0.1363833696721998</v>
       </c>
       <c r="Z23">
-        <v>0.05385315865437907</v>
+        <v>1.961680386034631</v>
       </c>
       <c r="AA23">
-        <v>0.0004719008150661986</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.05324713943394667</v>
+        <v>0.05095896633073971</v>
       </c>
       <c r="AC23">
-        <v>-0.05277523861888047</v>
+        <v>-0.05095896633073971</v>
       </c>
       <c r="AD23">
-        <v>9718.5</v>
+        <v>6916.9</v>
       </c>
       <c r="AE23">
-        <v>80.52078294578091</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>9799.020782945781</v>
+        <v>6916.9</v>
       </c>
       <c r="AG23">
-        <v>8855.120782945782</v>
+        <v>-11442.5</v>
       </c>
       <c r="AH23">
-        <v>0.763316942602953</v>
+        <v>0.7040245094047716</v>
       </c>
       <c r="AI23">
-        <v>0.8036515800492545</v>
+        <v>0.4652706775009417</v>
       </c>
       <c r="AJ23">
-        <v>0.7445331743686203</v>
+        <v>1.340718955780001</v>
       </c>
       <c r="AK23">
-        <v>0.7871763701509406</v>
+        <v>3.275837389063841</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>465.0000000000001</v>
-      </c>
-      <c r="AP23">
-        <v>423.6899896146307</v>
       </c>
     </row>
     <row r="24">
@@ -3233,7 +3269,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>State Bank of India (NSEI:SBIN)</t>
+          <t>Punjab &amp; Sind Bank (BSE:533295)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3242,13 +3278,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.0901</v>
-      </c>
-      <c r="E24">
-        <v>-0.04269999999999999</v>
-      </c>
-      <c r="F24">
-        <v>2.465</v>
+        <v>-0.225</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3257,16 +3287,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0003127138775295654</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0001992834828601347</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1738</v>
+        <v>-137.4</v>
       </c>
       <c r="L24">
-        <v>0.08627665119511529</v>
+        <v>-2.25615763546798</v>
       </c>
       <c r="M24">
         <v>-0</v>
@@ -3275,7 +3305,7 @@
         <v>-0</v>
       </c>
       <c r="O24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>-0</v>
@@ -3284,73 +3314,67 @@
         <v>-0</v>
       </c>
       <c r="R24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>32281.4</v>
+        <v>779.3</v>
       </c>
       <c r="V24">
-        <v>0.7713190704431309</v>
+        <v>6.078783151326054</v>
       </c>
       <c r="W24">
-        <v>0.05492335064040374</v>
+        <v>-0.1594337433279183</v>
       </c>
       <c r="X24">
-        <v>0.06723984353933911</v>
+        <v>0.1089202424600972</v>
       </c>
       <c r="Y24">
-        <v>-0.01231649289893537</v>
+        <v>-0.2683539857880155</v>
       </c>
       <c r="Z24">
-        <v>0.33219710869826</v>
+        <v>0.281293302540416</v>
       </c>
       <c r="AA24">
-        <v>6.6201396817456e-05</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.05302022823156925</v>
+        <v>0.05145848619812494</v>
       </c>
       <c r="AC24">
-        <v>-0.0529540268347518</v>
+        <v>-0.05145848619812494</v>
       </c>
       <c r="AD24">
-        <v>41110.6</v>
+        <v>372.4</v>
       </c>
       <c r="AE24">
-        <v>104.5026764705283</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>41215.10267647052</v>
+        <v>372.4</v>
       </c>
       <c r="AG24">
-        <v>8933.702676470522</v>
+        <v>-406.9</v>
       </c>
       <c r="AH24">
-        <v>0.4961651738830932</v>
+        <v>0.7439073112265282</v>
       </c>
       <c r="AI24">
-        <v>0.5404089768126481</v>
+        <v>0.3503292568203198</v>
       </c>
       <c r="AJ24">
-        <v>0.1759091048037938</v>
+        <v>1.459992823824901</v>
       </c>
       <c r="AK24">
-        <v>0.2031074644108887</v>
+        <v>-1.434261543884385</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>1511.419117647059</v>
-      </c>
-      <c r="AP24">
-        <v>328.444951340828</v>
       </c>
     </row>
     <row r="25">
@@ -3370,10 +3394,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.05309999999999999</v>
+        <v>0.0529</v>
       </c>
       <c r="E25">
-        <v>-0.07820000000000001</v>
+        <v>-0.187</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3388,28 +3412,28 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>44.2</v>
+        <v>12.7</v>
       </c>
       <c r="L25">
-        <v>0.151681537405628</v>
+        <v>0.04708935854653318</v>
       </c>
       <c r="M25">
-        <v>10.2</v>
+        <v>6.15</v>
       </c>
       <c r="N25">
-        <v>0.0396732788798133</v>
+        <v>0.0274798927613941</v>
       </c>
       <c r="O25">
-        <v>0.2307692307692307</v>
+        <v>0.484251968503937</v>
       </c>
       <c r="P25">
-        <v>10.2</v>
+        <v>6.15</v>
       </c>
       <c r="Q25">
-        <v>0.0396732788798133</v>
+        <v>0.0274798927613941</v>
       </c>
       <c r="R25">
-        <v>0.2307692307692307</v>
+        <v>0.484251968503937</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3418,55 +3442,55 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>704.7</v>
+        <v>555.1</v>
       </c>
       <c r="V25">
-        <v>2.74095682613769</v>
+        <v>2.480339588918677</v>
       </c>
       <c r="W25">
-        <v>0.06105815720403372</v>
+        <v>0.01616804583068109</v>
       </c>
       <c r="X25">
-        <v>0.09993734654436455</v>
+        <v>0.1324224981934332</v>
       </c>
       <c r="Y25">
-        <v>-0.03887918934033083</v>
+        <v>-0.1162544523627521</v>
       </c>
       <c r="Z25">
-        <v>0.3898849344393899</v>
+        <v>0.3566045220150734</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.05296051647047144</v>
+        <v>0.05212400217999773</v>
       </c>
       <c r="AC25">
-        <v>-0.05296051647047144</v>
+        <v>-0.05212400217999773</v>
       </c>
       <c r="AD25">
-        <v>675.5</v>
+        <v>878.9</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>675.5</v>
+        <v>878.9</v>
       </c>
       <c r="AG25">
-        <v>-29.20000000000005</v>
+        <v>323.8</v>
       </c>
       <c r="AH25">
-        <v>0.7243191078704696</v>
+        <v>0.7970436202049515</v>
       </c>
       <c r="AI25">
-        <v>0.4623545516769336</v>
+        <v>0.5333131067961165</v>
       </c>
       <c r="AJ25">
-        <v>-0.1281263712154456</v>
+        <v>0.5913075237399562</v>
       </c>
       <c r="AK25">
-        <v>-0.03860901758561424</v>
+        <v>0.2962759630341293</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -3483,7 +3507,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Axis Bank Limited (BSE:532215)</t>
+          <t>Yes Bank Limited (NSEI:YESBANK)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3491,101 +3515,95 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="F26">
-        <v>0.504</v>
-      </c>
       <c r="G26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I26">
-        <v>-0.002611429746649084</v>
+        <v>0.003805057063436526</v>
       </c>
       <c r="J26">
-        <v>-0.001305714873324542</v>
+        <v>0.003805057063436526</v>
       </c>
       <c r="K26">
-        <v>662.2</v>
+        <v>-2141.3</v>
       </c>
       <c r="L26">
-        <v>0.1747137354229328</v>
+        <v>0.6843619163284221</v>
       </c>
       <c r="M26">
-        <v>46.7</v>
+        <v>-0</v>
       </c>
       <c r="N26">
-        <v>0.001563247940496156</v>
+        <v>-0</v>
       </c>
       <c r="O26">
-        <v>0.07052250075505889</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>46.7</v>
+        <v>-0</v>
       </c>
       <c r="Q26">
-        <v>0.001563247940496156</v>
+        <v>-0</v>
       </c>
       <c r="R26">
-        <v>0.07052250075505889</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
       <c r="U26">
-        <v>8161.5</v>
+        <v>1838.1</v>
       </c>
       <c r="V26">
-        <v>0.2732001727271814</v>
+        <v>0.3001273594147998</v>
       </c>
       <c r="W26">
-        <v>0.8413162241138357</v>
+        <v>-0.5456653585444168</v>
       </c>
       <c r="X26">
-        <v>0.05903442634253481</v>
+        <v>0.07556018305872145</v>
       </c>
       <c r="Y26">
-        <v>0.7822817977713008</v>
+        <v>-0.6212255416031383</v>
       </c>
       <c r="Z26">
-        <v>1.395667807951651</v>
+        <v>-0.2398501542768978</v>
       </c>
       <c r="AA26">
-        <v>-0.001822344215062731</v>
+        <v>-0.0009126435236976508</v>
       </c>
       <c r="AB26">
-        <v>0.05158732589327511</v>
+        <v>0.05129506766998475</v>
       </c>
       <c r="AC26">
-        <v>-0.05340967010833784</v>
+        <v>-0.0522077111936824</v>
       </c>
       <c r="AD26">
-        <v>16474.2</v>
+        <v>8619.5</v>
       </c>
       <c r="AE26">
-        <v>630.4892051287468</v>
+        <v>283.5282152289327</v>
       </c>
       <c r="AF26">
-        <v>17104.68920512875</v>
+        <v>8903.028215228933</v>
       </c>
       <c r="AG26">
-        <v>8943.189205128747</v>
+        <v>7064.928215228932</v>
       </c>
       <c r="AH26">
-        <v>0.3640969708527466</v>
+        <v>0.5924518878224634</v>
       </c>
       <c r="AI26">
-        <v>0.5869108669058042</v>
+        <v>0.6405227591249134</v>
       </c>
       <c r="AJ26">
-        <v>0.2303942790950675</v>
+        <v>0.5356548946193849</v>
       </c>
       <c r="AK26">
-        <v>0.4262296817870131</v>
+        <v>0.5857407195141928</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -3594,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>141.7745266781411</v>
+        <v>192.3995535714286</v>
       </c>
       <c r="AP26">
-        <v>76.9637625226226</v>
+        <v>157.699290518503</v>
       </c>
     </row>
     <row r="27">
@@ -3608,7 +3626,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DCB Bank Limited (NSEI:DCBBANK)</t>
+          <t>IDBI Bank Limited (BSE:500116)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3616,15 +3634,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D27">
-        <v>0.22</v>
-      </c>
-      <c r="E27">
-        <v>0.171</v>
-      </c>
-      <c r="F27">
-        <v>0.19</v>
-      </c>
       <c r="G27">
         <v>0</v>
       </c>
@@ -3632,34 +3641,34 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>-0.01618268393020869</v>
+        <v>0.0001922563500404745</v>
       </c>
       <c r="J27">
-        <v>-0.01041500940123687</v>
+        <v>0.0001922563500404745</v>
       </c>
       <c r="K27">
-        <v>50.2</v>
+        <v>-690</v>
       </c>
       <c r="L27">
-        <v>0.2470472440944882</v>
+        <v>-1.070431275209432</v>
       </c>
       <c r="M27">
-        <v>3.94</v>
+        <v>0.444</v>
       </c>
       <c r="N27">
-        <v>0.005258241024956626</v>
+        <v>9.695805035704147e-05</v>
       </c>
       <c r="O27">
-        <v>0.07848605577689242</v>
+        <v>-0.0006434782608695653</v>
       </c>
       <c r="P27">
-        <v>3.94</v>
+        <v>0.444</v>
       </c>
       <c r="Q27">
-        <v>0.005258241024956626</v>
+        <v>9.695805035704147e-05</v>
       </c>
       <c r="R27">
-        <v>0.07848605577689242</v>
+        <v>-0.0006434782608695653</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3668,55 +3677,55 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>194.5</v>
+        <v>5016.1</v>
       </c>
       <c r="V27">
-        <v>0.2595756038969705</v>
+        <v>1.095385757648549</v>
       </c>
       <c r="W27">
-        <v>0.1242574257425743</v>
+        <v>-0.1568039269157349</v>
       </c>
       <c r="X27">
-        <v>0.05941743579480657</v>
+        <v>0.06700937209999729</v>
       </c>
       <c r="Y27">
-        <v>0.0648399899477677</v>
+        <v>-0.2238132990157322</v>
       </c>
       <c r="Z27">
-        <v>0.3518970534533348</v>
+        <v>0.1471175473781356</v>
       </c>
       <c r="AA27">
-        <v>-0.003665011119984036</v>
+        <v>2.828428268582692e-05</v>
       </c>
       <c r="AB27">
-        <v>0.05135842404719215</v>
+        <v>0.05272345293470504</v>
       </c>
       <c r="AC27">
-        <v>-0.05502343516717619</v>
+        <v>-0.05269516865201921</v>
       </c>
       <c r="AD27">
-        <v>394</v>
+        <v>4953.4</v>
       </c>
       <c r="AE27">
-        <v>49.44160687309203</v>
+        <v>0.2303577838195507</v>
       </c>
       <c r="AF27">
-        <v>443.441606873092</v>
+        <v>4953.630357783819</v>
       </c>
       <c r="AG27">
-        <v>248.941606873092</v>
+        <v>-62.46964221618146</v>
       </c>
       <c r="AH27">
-        <v>0.3717834645138479</v>
+        <v>0.5196335409855466</v>
       </c>
       <c r="AI27">
-        <v>0.4905101750868217</v>
+        <v>0.5066755629442053</v>
       </c>
       <c r="AJ27">
-        <v>0.2493801151535656</v>
+        <v>-0.01383041585976945</v>
       </c>
       <c r="AK27">
-        <v>0.350848497764864</v>
+        <v>-0.01312213667545961</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -3725,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>59.6969696969697</v>
+        <v>29137.64705882352</v>
       </c>
       <c r="AP27">
-        <v>37.71842528380183</v>
+        <v>-367.4684836245968</v>
       </c>
     </row>
     <row r="28">
@@ -3739,7 +3748,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Indian Bank (BSE:532814)</t>
+          <t>DCB Bank Limited (NSEI:DCBBANK)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3747,6 +3756,15 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D28">
+        <v>0.138</v>
+      </c>
+      <c r="E28">
+        <v>0.116</v>
+      </c>
+      <c r="F28">
+        <v>0.038</v>
+      </c>
       <c r="G28">
         <v>0</v>
       </c>
@@ -3754,16 +3772,16 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>-0.01849825242836291</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>-0.0136286793553336</v>
       </c>
       <c r="K28">
-        <v>116</v>
+        <v>44.5</v>
       </c>
       <c r="L28">
-        <v>0.1519717018210402</v>
+        <v>0.2542857142857143</v>
       </c>
       <c r="M28">
         <v>-0</v>
@@ -3787,61 +3805,67 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>2798.3</v>
+        <v>452.3</v>
       </c>
       <c r="V28">
-        <v>3.243653645531471</v>
+        <v>0.8921104536489152</v>
       </c>
       <c r="W28">
-        <v>0.1431568554856226</v>
+        <v>0.09661311333043855</v>
       </c>
       <c r="X28">
-        <v>0.09883111870617686</v>
+        <v>0.0675689841557056</v>
       </c>
       <c r="Y28">
-        <v>0.04432573677944576</v>
+        <v>0.02904412917473295</v>
       </c>
       <c r="Z28">
-        <v>0.7157055789967182</v>
+        <v>0.3371310530798431</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>-0.004594651023151133</v>
       </c>
       <c r="AB28">
-        <v>0.05544909619453879</v>
+        <v>0.04871906562977456</v>
       </c>
       <c r="AC28">
-        <v>-0.05544909619453879</v>
+        <v>-0.05331371665292569</v>
       </c>
       <c r="AD28">
-        <v>2218.7</v>
+        <v>511.7</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>49.08597087481755</v>
       </c>
       <c r="AF28">
-        <v>2218.7</v>
+        <v>560.7859708748175</v>
       </c>
       <c r="AG28">
-        <v>-579.6000000000004</v>
+        <v>108.4859708748175</v>
       </c>
       <c r="AH28">
-        <v>0.7200298565587071</v>
+        <v>0.5251857452438488</v>
       </c>
       <c r="AI28">
-        <v>0.3988674157303371</v>
+        <v>0.5350061787287467</v>
       </c>
       <c r="AJ28">
-        <v>-2.047333097845288</v>
+        <v>0.1762606720679946</v>
       </c>
       <c r="AK28">
-        <v>-0.2096809203386153</v>
+        <v>0.1820582731886601</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>77.76595744680851</v>
+      </c>
+      <c r="AP28">
+        <v>16.48722961623366</v>
       </c>
     </row>
     <row r="29">
@@ -3852,7 +3876,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Union Bank of India (BSE:532477)</t>
+          <t>Indian Bank (BSE:532814)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3873,82 +3897,85 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>-581.8</v>
+        <v>124.1</v>
       </c>
       <c r="L29">
-        <v>-1.393866794441782</v>
+        <v>0.09918478260869565</v>
       </c>
       <c r="M29">
-        <v>-0</v>
+        <v>38.4</v>
       </c>
       <c r="N29">
-        <v>-0</v>
+        <v>0.0290227496032046</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.3094278807413376</v>
       </c>
       <c r="P29">
-        <v>-0</v>
+        <v>38.4</v>
       </c>
       <c r="Q29">
-        <v>-0</v>
+        <v>0.0290227496032046</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.3094278807413376</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
       <c r="U29">
-        <v>5269.1</v>
+        <v>3468.5</v>
       </c>
       <c r="V29">
-        <v>1.999203217483685</v>
+        <v>2.621494973924873</v>
       </c>
       <c r="W29">
-        <v>-0.2028379179304814</v>
+        <v>0.03714679118773946</v>
       </c>
       <c r="X29">
-        <v>0.09139200856355853</v>
+        <v>0.1161710346208787</v>
       </c>
       <c r="Y29">
-        <v>-0.29422992649404</v>
+        <v>-0.07902424343313927</v>
       </c>
       <c r="Z29">
-        <v>0.07108189574428228</v>
+        <v>0.3061638975212274</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.05629693652427077</v>
+        <v>0.05415521108873078</v>
       </c>
       <c r="AC29">
-        <v>-0.05629693652427077</v>
+        <v>-0.05415521108873078</v>
       </c>
       <c r="AD29">
-        <v>5793.3</v>
+        <v>4260.7</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>5793.3</v>
+        <v>4260.7</v>
       </c>
       <c r="AG29">
-        <v>524.1999999999998</v>
+        <v>792.1999999999998</v>
       </c>
       <c r="AH29">
-        <v>0.687313884373999</v>
+        <v>0.7630466707260289</v>
       </c>
       <c r="AI29">
-        <v>0.5216134695898799</v>
+        <v>0.4552370369578921</v>
       </c>
       <c r="AJ29">
-        <v>0.1658965757326413</v>
+        <v>0.3745095258355788</v>
       </c>
       <c r="AK29">
-        <v>0.08980025353753381</v>
+        <v>0.1344808854484959</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -3965,7 +3992,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Yes Bank Limited (NSEI:YESBANK)</t>
+          <t>Union Bank of India (BSE:532477)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3973,9 +4000,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="F30">
-        <v>-0.06480000000000001</v>
-      </c>
       <c r="G30">
         <v>0</v>
       </c>
@@ -3983,222 +4007,97 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>-0.008032220985943571</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>-0.008032220985943571</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>-147.4</v>
+        <v>-174.6</v>
       </c>
       <c r="L30">
-        <v>-0.1725389207538336</v>
+        <v>-0.1107657171858149</v>
       </c>
       <c r="M30">
-        <v>65.59999999999999</v>
+        <v>0.102</v>
       </c>
       <c r="N30">
-        <v>0.03898959881129271</v>
+        <v>3.684971098265896e-05</v>
       </c>
       <c r="O30">
-        <v>-0.4450474898236091</v>
+        <v>-0.000584192439862543</v>
       </c>
       <c r="P30">
-        <v>65.59999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q30">
-        <v>0.03898959881129271</v>
+        <v>-0</v>
       </c>
       <c r="R30">
-        <v>-0.4450474898236091</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>4343.9</v>
+        <v>9001.799999999999</v>
       </c>
       <c r="V30">
-        <v>2.581812778603269</v>
+        <v>3.252095375722543</v>
       </c>
       <c r="W30">
-        <v>-0.04333509731287117</v>
+        <v>-0.03295272246862319</v>
       </c>
       <c r="X30">
-        <v>0.2069811813990567</v>
+        <v>0.1031872496357822</v>
       </c>
       <c r="Y30">
-        <v>-0.2503162787119279</v>
+        <v>-0.1361399721044054</v>
       </c>
       <c r="Z30">
-        <v>0.09696924699181494</v>
+        <v>0.270716334346609</v>
       </c>
       <c r="AA30">
-        <v>-0.0007788784206788016</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.05653510452826337</v>
+        <v>0.05458383544231428</v>
       </c>
       <c r="AC30">
-        <v>-0.05731398294894217</v>
+        <v>-0.05458383544231428</v>
       </c>
       <c r="AD30">
-        <v>13181.4</v>
+        <v>7350.3</v>
       </c>
       <c r="AE30">
-        <v>286.809631941458</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>13468.20963194146</v>
+        <v>7350.3</v>
       </c>
       <c r="AG30">
-        <v>9124.309631941458</v>
+        <v>-1651.499999999999</v>
       </c>
       <c r="AH30">
-        <v>0.8889490960573311</v>
+        <v>0.726436259055375</v>
       </c>
       <c r="AI30">
-        <v>0.7743728394717004</v>
+        <v>0.4630226903355046</v>
       </c>
       <c r="AJ30">
-        <v>0.8443111281402542</v>
+        <v>-1.479175996417374</v>
       </c>
       <c r="AK30">
-        <v>0.6992606733880207</v>
+        <v>-0.2402950762425793</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
         <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>261.0178217821782</v>
-      </c>
-      <c r="AP30">
-        <v>180.6793986523061</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Allahabad Bank (BSE:532480)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="G31">
-        <v>-0</v>
-      </c>
-      <c r="H31">
-        <v>-0</v>
-      </c>
-      <c r="I31">
-        <v>0.01154925782104184</v>
-      </c>
-      <c r="J31">
-        <v>0.01154925782104184</v>
-      </c>
-      <c r="K31">
-        <v>-945.8</v>
-      </c>
-      <c r="L31">
-        <v>3.626533742331288</v>
-      </c>
-      <c r="M31">
-        <v>-0</v>
-      </c>
-      <c r="N31">
-        <v>-0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>-0</v>
-      </c>
-      <c r="Q31">
-        <v>-0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>1395.6</v>
-      </c>
-      <c r="V31">
-        <v>1.419591089411047</v>
-      </c>
-      <c r="W31">
-        <v>-1.699245418613007</v>
-      </c>
-      <c r="X31">
-        <v>0.07596525664787464</v>
-      </c>
-      <c r="Y31">
-        <v>-1.775210675260882</v>
-      </c>
-      <c r="Z31">
-        <v>-0.5939959506102787</v>
-      </c>
-      <c r="AA31">
-        <v>-0.006860212378252942</v>
-      </c>
-      <c r="AB31">
-        <v>0.05195351918303182</v>
-      </c>
-      <c r="AC31">
-        <v>-0.05881373156128476</v>
-      </c>
-      <c r="AD31">
-        <v>1292</v>
-      </c>
-      <c r="AE31">
-        <v>107.0602321986386</v>
-      </c>
-      <c r="AF31">
-        <v>1399.060232198638</v>
-      </c>
-      <c r="AG31">
-        <v>3.46023219863855</v>
-      </c>
-      <c r="AH31">
-        <v>0.5873073579552464</v>
-      </c>
-      <c r="AI31">
-        <v>0.4100098283820443</v>
-      </c>
-      <c r="AJ31">
-        <v>0.003507370442985636</v>
-      </c>
-      <c r="AK31">
-        <v>0.001715823093742507</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>70.21739130434783</v>
-      </c>
-      <c r="AP31">
-        <v>0.1880560977520951</v>
       </c>
     </row>
   </sheetData>
